--- a/Top_200_NBA_Players_JBR.xlsx
+++ b/Top_200_NBA_Players_JBR.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,7406 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Michael Jordan*</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>384.7950564481</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nikola JokiÄ</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>381.5602079625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LeBron James</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>365.5134521692</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Luka DonÄiÄ</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>348.3179738562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Wilt Chamberlain*</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>344.9823529404</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Joel Embiid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>342.1026322055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>David Robinson*</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>340.4721449814</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Jerry West*</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>338.3423707672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Larry Bird*</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>336.1049851462</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Kareem Abdul-Jabbar*</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>335.4590968523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Giannis Antetokounmpo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>326.2468627459</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kevin Durant</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>323.9254842551</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Anthony Davis</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>322.532245991</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Charles Barkley*</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>318.0534997038</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chris Paul</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>318.0462863933</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>James Harden</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>315.3631907311</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Julius Erving*</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>314.6050742735999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Stephen Curry</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>310.8479679147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Shaquille O'Neal*</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>310.540629829</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Karl Malone*</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>307.5923291749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oscar Robertson*</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>298.1899286976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kawhi Leonard</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>297.270392158</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Tim Duncan*</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>294.697260845</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hakeem Olajuwon*</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>291.6007308399</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Karl-Anthony Towns</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>291.4028223418</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Shai Gilgeous-Alexander</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>286.3385323832</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Damian Lillard</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K28" t="n">
+        <v>283.7421687461</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Clyde Drexler*</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>281.7420855622</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Kevin Garnett*</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>281.3337967925</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Bob Pettit*</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>281.277058823</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kobe Bryant*</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>275.8807961977</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Bob Lanier*</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>273.6588294722</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kyrie Irving</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>272.9447118243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Jimmy Butler</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>272.4697742133</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Dwyane Wade*</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>271.1970291152001</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Artis Gilmore*</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>269.0878966144001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>George Mikan*</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>268.5405882348</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rick Barry*</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>267.4651455739</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Dirk Nowitzki*</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>266.4456268575</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kevin Johnson</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K41" t="n">
+        <v>266.1684016632</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Russell Westbrook</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>262.5180689243</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jayson Tatum</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K43" t="n">
+        <v>261.7101604283</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Elgin Baylor*</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>261.6741176463</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Adrian Dantley*</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>261.6455436723</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Trae Young</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.434</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>260.0500356497</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Tracy McGrady*</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J47" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>257.0217468812</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Allen Iverson*</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>256.8948306598</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chris Webber*</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K49" t="n">
+        <v>253.8905288184</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Walt Frazier*</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>253.8762923352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Dan Issel*</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>253.3300713017</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Yao Ming*</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>19</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>253.3004515756</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Larry Nance</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K53" t="n">
+        <v>251.6736125978</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Dominique Wilkins*</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>250.7414379092</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Magic Johnson*</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>250.3831372555</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Marques Johnson</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K56" t="n">
+        <v>250.3831372555</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Donovan Mitchell</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>248.5123588832</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Patrick Ewing*</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>21</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>247.6489958422</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Pau Gasol*</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>247.5274688064</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>George Gervin*</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>246.8136125973</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Neil Johnston*</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>246.0758823525</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Blake Griffin</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>19</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K62" t="n">
+        <v>244.6916339871</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Bob McAdoo*</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>244.1083006545</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Paul George</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K64" t="n">
+        <v>241.4268270951</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Jerry Lucas*</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>241.2888354128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Dave Cowens*</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>240.3731431971</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Billy Cunningham*</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K67" t="n">
+        <v>239.04654189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Walt Bellamy*</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>238.301687463</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Willis Reed*</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K69" t="n">
+        <v>238.0308615573</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Paul Pierce*</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K70" t="n">
+        <v>237.9301544866</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Brad Daugherty</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>19</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G71" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K71" t="n">
+        <v>237.7580392159</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Moses Malone*</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>236.9591800365</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Kevin McHale*</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>235.7139393948</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>David Thompson*</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>235.476411171</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Isiah Thomas*</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K75" t="n">
+        <v>233.4744682111</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Isaiah Thomas</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K76" t="n">
+        <v>233.4744682111</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Tim Hardaway*</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>233.0915567435</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Connie Hawkins*</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>230.5760308975</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chet Walker*</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>230.0246583484</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Reggie Miller*</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>229.2674628643</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>George McGinnis*</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>11</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>229.0789483072</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Kristaps PorziÅÄ£is</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>228.3243969113</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Paul Arizin*</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>228.2594117643</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chris Bosh*</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2</v>
+      </c>
+      <c r="D84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K84" t="n">
+        <v>226.5074331557</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Dolph Schayes*</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>226.1352941171</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Alonzo Mourning*</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.527</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>225.9639215701</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Chris Mullin*</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>223.9622756988</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Alex English*</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>223.2571776592</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LaMarcus Aldridge</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>222.8210160434</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DeMarcus Cousins</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>222.3485739758</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Gilbert Arenas</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C91" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>221.4428342247</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>John Wall</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K92" t="n">
+        <v>221.3307189539</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Nikola VuÄeviÄ</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>221.2541770652</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Amar'e Stoudemire</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K94" t="n">
+        <v>219.5981164595</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Elvin Hayes*</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>21</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K95" t="n">
+        <v>218.9694474164</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>John Havlicek*</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.439</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>218.8886274509</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Bernard King*</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K97" t="n">
+        <v>217.9785323828</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Gus Williams</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K98" t="n">
+        <v>217.9681461679</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Bailey Howell*</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>217.664705882</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Kemba Walker</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K100" t="n">
+        <v>217.6599049317</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Pascal Siakam</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2</v>
+      </c>
+      <c r="K101" t="n">
+        <v>217.4316221036</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Jalen Brunson</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>217.3579738559</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Devin Booker</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>216.6157575755</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Stephon Marbury</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>215.0817409381999</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ed Macauley*</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>214.8035294112</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Steve Francis</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>213.8696732026</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>John Drew</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>212.9717171722999</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Bob Cousy*</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>211.9676470575</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Carmelo Anthony</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>210.393868093</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>De'Aaron Fox</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>210.0832620319</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Zelmo Beaty*</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K111" t="n">
+        <v>209.7632263819</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>George Yardley*</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.422</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>209.5599999997</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DeMar DeRozan</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>209.1416874628</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bob Dandridge*</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>207.8437373741</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>James Worthy*</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>207.7997860967</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bradley Beal</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K116" t="n">
+        <v>207.5338146168</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Tiny Archibald*</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K117" t="n">
+        <v>204.592442067</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Clyde Lovellette*</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>17</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>203.6517647056</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Calvin Natt</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>202.5569340466</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Pete Maravich*</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K120" t="n">
+        <v>201.4073321448</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Michael Redd</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>19</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>200.4684967323</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Sam Jones*</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>200.3858823525</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Julius Randle</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K123" t="n">
+        <v>200.3758704693</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Kiki Vandeweghe</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K124" t="n">
+        <v>200.3347593584</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Lou Hudson*</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>199.9331610223</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Spencer Haywood*</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K126" t="n">
+        <v>199.7254070117</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mitch Richmond*</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>21</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>199.5988413549</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Mark Aguirre</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>20</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>199.5972133096</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Roger Brown*</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K129" t="n">
+        <v>199.3497088532</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Reggie Lewis</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K130" t="n">
+        <v>199.0336125972</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Tom Heinsohn*</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>197.464705882</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Bill Sharman*</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>196.927058823</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Mel Daniels*</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J133" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="K133" t="n">
+        <v>196.7494474158</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Rudy Tomjanovich*</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K134" t="n">
+        <v>196.4229887108</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Peja StojakoviÄ</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>17</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>195.9665181227</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>World B. Free</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>195.5260190137</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Hal Greer*</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C137" t="n">
+        <v>4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>194.889411764</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Shareef Abdur-Rahim</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>194.7567914443</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Willie Wise</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>194.6876114084</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>CJ McCollum</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K140" t="n">
+        <v>194.522436126</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Earl Monroe*</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>3</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K141" t="n">
+        <v>194.5061259655</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Jack Twyman*</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>194.4294117643</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Calvin Murphy*</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K143" t="n">
+        <v>193.3857872846</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Warren Jabali</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K144" t="n">
+        <v>192.7978847298</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Lauri Markkanen</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K145" t="n">
+        <v>192.7592869879</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Larry Jones</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J146" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K146" t="n">
+        <v>192.6698573975</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Dave Bing*</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J147" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>190.6301782527</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Cliff Hagan*</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>189.7435294112</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Richie Guerin*</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>189.241764705</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Billy Knight</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>188.3151693407</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Jamal Murray</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K151" t="n">
+        <v>186.7393285798</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Antawn Jamison</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K152" t="n">
+        <v>186.4240879386</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Jamaal Wilkes*</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>186.1647712421</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Derrick Rose</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K154" t="n">
+        <v>184.6828817584</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Zach LaVine</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K155" t="n">
+        <v>184.6697147949</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Doug Collins*</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K156" t="n">
+        <v>184.5114616757</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Phil Chenier</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K157" t="n">
+        <v>184.4574628645</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Glen Rice</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K158" t="n">
+        <v>183.9278906717</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Reggie Theus</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G159" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>182.8756922158</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jaylen Brown</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K160" t="n">
+        <v>182.1900237673</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Larry Kenon</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D161" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J161" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>182.1309744507</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Otis Birdsong</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>18</v>
+      </c>
+      <c r="C162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K162" t="n">
+        <v>180.4858526442</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Brandon Ingram</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>179.8154307782</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Gail Goodrich*</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J164" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>179.3831194294</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Geoff Petrie</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J165" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="K165" t="n">
+        <v>179.2482174684</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jason Richardson</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K166" t="n">
+        <v>179.0703327395</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Rolando Blackman</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>18</v>
+      </c>
+      <c r="C167" t="n">
+        <v>3</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K167" t="n">
+        <v>178.2289780154</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jamal Mashburn</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K168" t="n">
+        <v>178.1633511585</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Klay Thompson</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K169" t="n">
+        <v>176.9626440882</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>John Brisker</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="J170" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>175.6430005941</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>George Thompson</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>175.4633392751</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Glenn Robinson</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>175.3614438506</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Donnie Freeman</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="C173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="J173" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="K173" t="n">
+        <v>174.7419726676</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>D'Angelo Russell</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K174" t="n">
+        <v>172.0817349967</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Tom Chambers</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="J175" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K175" t="n">
+        <v>170.5161734999</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Latrell Sprewell</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K176" t="n">
+        <v>170.1157754012</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Darel Carrier</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>20</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>167.5041176466</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Kelly Tripucka</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>166.9628163993</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jo Jo White*</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4</v>
+      </c>
+      <c r="E179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J179" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K179" t="n">
+        <v>166.4723172903</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Levern Tart</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>166.397058823</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Purvis Short</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>166.3925490197</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Antoine Walker</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K182" t="n">
+        <v>165.279952466</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Charlie Scott*</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="J183" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="K183" t="n">
+        <v>165.0160546640001</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Mike Mitchell</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="J184" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="K184" t="n">
+        <v>164.6446345813</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Monta Ellis</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J185" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="K185" t="n">
+        <v>163.8726619133</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Joe Barry Carroll</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J186" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K186" t="n">
+        <v>163.6481342848</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Richard Hamilton</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D187" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J187" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K187" t="n">
+        <v>162.0018181816</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Cliff Robinson</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2</v>
+      </c>
+      <c r="D188" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.468</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J188" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K188" t="n">
+        <v>160.9946048726</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Kevin Martin</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K189" t="n">
+        <v>159.6033392758</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Allan Houston</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K190" t="n">
+        <v>155.8467379679</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Jerry Stackhouse</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="C191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K191" t="n">
+        <v>155.386815211</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Bob Love</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="J192" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="K192" t="n">
+        <v>153.4472133096</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Jeff Malone</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>19</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="J193" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="K193" t="n">
+        <v>149.1901723111</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Bob Rule</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D194" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J194" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>148.6661556742</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Andrew Wiggins</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J195" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="K195" t="n">
+        <v>146.0965834821</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>George Carter</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="J196" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="K196" t="n">
+        <v>143.723291741</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Kyle Kuzma</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.451</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J197" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="K197" t="n">
+        <v>139.9143731431</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>John Williamson</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.458</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J198" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="K198" t="n">
+        <v>136.8929114676</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Bob Verga</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="K199" t="n">
+        <v>136.8685204986</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Walter Davis*</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>81.42764705869999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Ray Allen*</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="K201" t="n">
+        <v>14.27066547800001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
